--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,279 +49,285 @@
     <t>ripped</t>
   </si>
   <si>
-    <t>trash</t>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>disappointment</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>terrible</t>
+    <t>however</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>loose</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>guess</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>probably</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
-    <t>paint</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>thought</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>fl</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
-    <t>item</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>used</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>never</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>make</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>toy</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -352,45 +358,57 @@
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>learn</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -403,6 +421,9 @@
     <t>cute</t>
   </si>
   <si>
+    <t>games</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
@@ -424,13 +445,7 @@
     <t>play</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -791,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,10 +814,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -860,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -878,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K3">
-        <v>0.9076923076923077</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -931,16 +946,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -952,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -981,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K5">
         <v>0.8518518518518519</v>
@@ -1031,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K6">
         <v>0.85</v>
@@ -1060,13 +1075,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8275862068965517</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1078,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K7">
-        <v>0.8172043010752689</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1102,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1131,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K8">
         <v>0.796875</v>
@@ -1160,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1178,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1202,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1210,13 +1225,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7746478873239436</v>
+        <v>0.71875</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1228,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K10">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1252,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1260,13 +1275,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7142857142857143</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1278,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K11">
-        <v>0.5552367288378766</v>
+        <v>0.5824964131994261</v>
       </c>
       <c r="L11">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="M11">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1302,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1310,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.703125</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1328,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K12">
-        <v>0.5362318840579711</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1352,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1360,13 +1375,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1378,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K13">
-        <v>0.5124481327800829</v>
+        <v>0.5311203319502075</v>
       </c>
       <c r="L13">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M13">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1402,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1410,13 +1425,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1428,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K14">
-        <v>0.4680327868852459</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L14">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="M14">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1452,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1460,13 +1475,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6774193548387096</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C15">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1478,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K15">
-        <v>0.3883792048929663</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L15">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1502,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1510,13 +1525,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6554054054054054</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C16">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D16">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1528,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K16">
-        <v>0.3674698795180723</v>
+        <v>0.400611620795107</v>
       </c>
       <c r="L16">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="M16">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1552,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>105</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1560,13 +1575,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6456310679611651</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C17">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1578,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17">
-        <v>0.3650793650793651</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L17">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M17">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1602,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1610,13 +1625,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6363636363636364</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1628,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K18">
-        <v>0.3584905660377358</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1652,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1660,13 +1675,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6285714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1678,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K19">
-        <v>0.3583333333333333</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1702,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1710,13 +1725,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6041666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1728,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20">
-        <v>0.2587412587412588</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1752,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1760,13 +1775,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1778,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K21">
-        <v>0.2365591397849462</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1802,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>142</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1810,13 +1825,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1828,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K22">
-        <v>0.234375</v>
+        <v>0.265625</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1852,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1860,13 +1875,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.527536231884058</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C23">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1878,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23">
-        <v>0.208</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1902,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1910,13 +1925,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5185185185185185</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1928,19 +1943,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K24">
-        <v>0.2068965517241379</v>
+        <v>0.234375</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1952,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1960,13 +1975,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5142857142857142</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1978,31 +1993,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K25">
-        <v>0.1973684210526316</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2013,10 +2028,10 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2028,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K26">
-        <v>0.1904761904761905</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2052,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2060,13 +2075,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2078,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K27">
-        <v>0.1887550200803213</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2102,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>202</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2110,13 +2125,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4666666666666667</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2128,31 +2143,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K28">
-        <v>0.1657894736842105</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L28">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>951</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2160,13 +2175,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4651162790697674</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2178,31 +2193,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K29">
-        <v>0.1452991452991453</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2210,13 +2225,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4603174603174603</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2228,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K30">
-        <v>0.1030640668523677</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2252,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>322</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2260,13 +2275,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4285714285714285</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2278,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K31">
-        <v>0.1011673151750973</v>
+        <v>0.176</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2302,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>231</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2310,13 +2325,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4216867469879518</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2328,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K32">
-        <v>0.09740259740259741</v>
+        <v>0.175284837861525</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2352,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>139</v>
+        <v>941</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2360,13 +2375,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4210526315789473</v>
+        <v>0.4218009478672986</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2378,19 +2393,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K33">
-        <v>0.09625668449197861</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2402,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>338</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2410,13 +2425,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4081632653061225</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2428,31 +2443,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K34">
-        <v>0.09297789336801041</v>
+        <v>0.1058495821727019</v>
       </c>
       <c r="L34">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1395</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2460,13 +2475,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3981042654028436</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="C35">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2478,19 +2493,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K35">
-        <v>0.08275862068965517</v>
+        <v>0.1050583657587549</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2502,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2510,49 +2525,49 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3937007874015748</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K36">
-        <v>0.06172839506172839</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>304</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2560,13 +2575,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3828125</v>
+        <v>0.4</v>
       </c>
       <c r="C37">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2578,31 +2593,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K37">
-        <v>0.05111821086261981</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>297</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2610,13 +2625,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3666666666666666</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2628,31 +2643,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K38">
-        <v>0.0507343124165554</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>711</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2660,13 +2675,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3636363636363636</v>
+        <v>0.390625</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2678,31 +2693,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K39">
-        <v>0.03907637655417407</v>
+        <v>0.09303838646714378</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="N39">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>541</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2710,13 +2725,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.360655737704918</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2728,31 +2743,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K40">
-        <v>0.03267045454545454</v>
+        <v>0.06574394463667819</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>681</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2760,7 +2775,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.359375</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C41">
         <v>23</v>
@@ -2778,31 +2793,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K41">
-        <v>0.03225806451612903</v>
+        <v>0.05864197530864197</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>480</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2810,13 +2825,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3518518518518519</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2828,7 +2843,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K42">
+        <v>0.05111821086261981</v>
+      </c>
+      <c r="L42">
+        <v>16</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2836,13 +2875,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3483146067415731</v>
+        <v>0.35</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2854,7 +2893,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43">
+        <v>0.04533333333333334</v>
+      </c>
+      <c r="L43">
+        <v>34</v>
+      </c>
+      <c r="M43">
+        <v>36</v>
+      </c>
+      <c r="N43">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O43">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>716</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2862,25 +2925,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3214285714285715</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>31</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>58</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44">
+        <v>0.02414772727272727</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
         <v>18</v>
       </c>
-      <c r="D44">
-        <v>18</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>38</v>
+      <c r="N44">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2888,13 +2975,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3174603174603174</v>
+        <v>0.34375</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2906,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2914,13 +3001,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3134328358208955</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D46">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2932,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2940,13 +3027,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2903225806451613</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2958,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2966,13 +3053,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2821782178217822</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C48">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2984,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2992,13 +3079,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2758620689655172</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3010,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3018,13 +3105,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2525773195876289</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3036,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>145</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3044,13 +3131,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.25</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3062,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3070,13 +3157,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2463768115942029</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3088,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>52</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3096,7 +3183,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2346938775510204</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C53">
         <v>23</v>
@@ -3114,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3122,13 +3209,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2307692307692308</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3140,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3148,13 +3235,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2266666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3166,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3174,13 +3261,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.213768115942029</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="C56">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3192,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>217</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3200,13 +3287,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2071428571428572</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C57">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3218,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3226,25 +3313,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2050520059435364</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="C58">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D58">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="E58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>535</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3252,13 +3339,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2033898305084746</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3270,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3278,13 +3365,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2027027027027027</v>
+        <v>0.205</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3296,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>59</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3304,25 +3391,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1962616822429906</v>
+        <v>0.2</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3330,25 +3417,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1867088607594937</v>
+        <v>0.2</v>
       </c>
       <c r="C62">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D62">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3356,13 +3443,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1855670103092784</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="C63">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3374,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3382,25 +3469,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.185</v>
+        <v>0.1931649331352155</v>
       </c>
       <c r="C64">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="D64">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>163</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3408,25 +3495,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1746031746031746</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D65">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E65">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>260</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3434,13 +3521,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1728971962616822</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C66">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D66">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3452,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3460,25 +3547,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1677704194260486</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C67">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D67">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E67">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>377</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3486,25 +3573,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1648351648351648</v>
+        <v>0.1642651296829971</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>76</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3512,25 +3599,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1613832853025937</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="C69">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>291</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3538,13 +3625,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1570680628272251</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C70">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D70">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3556,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3564,25 +3651,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1528662420382166</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>133</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3590,13 +3677,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1423220973782771</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C72">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3608,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>229</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3616,13 +3703,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1257142857142857</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3634,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3642,25 +3729,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1255060728744939</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>216</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3668,25 +3755,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.125</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>112</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3694,25 +3781,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1229946524064171</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>164</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3720,25 +3807,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1092896174863388</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="C77">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>163</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3746,25 +3833,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1082802547770701</v>
+        <v>0.125</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3772,25 +3859,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3798,25 +3885,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.09895833333333333</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="C80">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D80">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3824,25 +3911,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09863013698630137</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="C81">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D81">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3850,13 +3937,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.09714285714285714</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3868,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>158</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3876,25 +3963,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.09677419354838709</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C83">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D83">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E83">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="F83">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>252</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3902,25 +3989,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.09230769230769231</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E84">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3928,25 +4015,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.09014084507042254</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="C85">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D85">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3954,25 +4041,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.08501118568232663</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="C86">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D86">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E86">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F86">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>409</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3980,25 +4067,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.07425742574257425</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C87">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D87">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E87">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F87">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>561</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4006,25 +4093,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06666666666666667</v>
+        <v>0.08501118568232663</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D88">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E88">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F88">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>294</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4032,25 +4119,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.06338028169014084</v>
+        <v>0.0757825370675453</v>
       </c>
       <c r="C89">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D89">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E89">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="F89">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>399</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4058,25 +4145,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05841121495327103</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="C90">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D90">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>403</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4084,25 +4171,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.05505761843790013</v>
+        <v>0.06125574272588055</v>
       </c>
       <c r="C91">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D91">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E91">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="F91">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>738</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4110,25 +4197,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0460122699386503</v>
+        <v>0.06088992974238876</v>
       </c>
       <c r="C92">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D92">
         <v>33</v>
       </c>
       <c r="E92">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="F92">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>622</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4136,25 +4223,77 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.03784860557768924</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="C93">
+        <v>40</v>
+      </c>
+      <c r="D93">
+        <v>50</v>
+      </c>
+      <c r="E93">
+        <v>0.2</v>
+      </c>
+      <c r="F93">
+        <v>0.8</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.04318181818181818</v>
+      </c>
+      <c r="C94">
         <v>19</v>
       </c>
-      <c r="D93">
-        <v>21</v>
-      </c>
-      <c r="E93">
-        <v>0.1</v>
-      </c>
-      <c r="F93">
-        <v>0.9</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>483</v>
+      <c r="D94">
+        <v>26</v>
+      </c>
+      <c r="E94">
+        <v>0.27</v>
+      </c>
+      <c r="F94">
+        <v>0.73</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.03455723542116631</v>
+      </c>
+      <c r="C95">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <v>22</v>
+      </c>
+      <c r="E95">
+        <v>0.27</v>
+      </c>
+      <c r="F95">
+        <v>0.73</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
